--- a/заказы/статистика филиалы/2023/11,23/23,11,23 ЗПФ/дв 23,11,23 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/23,11,23 ЗПФ/дв 23,11,23 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\23,11,23 ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\23,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59665ACF-A153-466F-8A4D-012DA4FA9DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8752B3D9-6B6D-43D0-97AE-7B80C67A7425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,10 +233,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -469,6 +473,7 @@
           <cell r="A1" t="str">
             <v>Период: 09.11.2023 - 16.11.2023</v>
           </cell>
+          <cell r="B1"/>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -548,6 +553,7 @@
           <cell r="A4" t="str">
             <v>Номенклатура</v>
           </cell>
+          <cell r="B4"/>
           <cell r="C4" t="str">
             <v>АКЦИИ</v>
           </cell>
@@ -583,6 +589,8 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5"/>
+          <cell r="B5"/>
           <cell r="F5">
             <v>22873.3</v>
           </cell>
@@ -3198,7 +3206,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
